--- a/output/1Y_P57_KFSDIV.xlsx
+++ b/output/1Y_P57_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.2404</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.382</v>
       </c>
       <c r="C3" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="F3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="H3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0648</v>
+        <v>-0.06859999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.9583</v>
       </c>
       <c r="C4" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D4" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E4" s="1">
-        <v>1562.8882</v>
+        <v>1559.7652</v>
       </c>
       <c r="F4" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="H4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.7968</v>
+        <v>12.8224</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.2036</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E5" s="1">
-        <v>2399.1274</v>
+        <v>2394.3295</v>
       </c>
       <c r="F5" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5045</v>
+        <v>12.5296</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.3603</v>
+        <v>-9438.4845</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0205</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E6" s="1">
-        <v>3218.5578</v>
+        <v>3212.118</v>
       </c>
       <c r="F6" s="1">
-        <v>779.8236000000001</v>
+        <v>778.2518</v>
       </c>
       <c r="H6" s="1">
-        <v>41563.1675</v>
+        <v>41397.135</v>
       </c>
       <c r="I6" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="J6" s="1">
-        <v>42125.8072</v>
+        <v>41958.6504</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4279</v>
+        <v>12.4528</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10070.33</v>
+        <v>-10070.1894</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0725</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.4338</v>
       </c>
       <c r="C7" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D7" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E7" s="1">
-        <v>3998.3814</v>
+        <v>3990.3699</v>
       </c>
       <c r="F7" s="1">
-        <v>749.6263</v>
+        <v>748.1178</v>
       </c>
       <c r="H7" s="1">
-        <v>53713.4554</v>
+        <v>53498.4898</v>
       </c>
       <c r="I7" s="1">
-        <v>492.3098</v>
+        <v>491.326</v>
       </c>
       <c r="J7" s="1">
-        <v>54205.7652</v>
+        <v>53989.8158</v>
       </c>
       <c r="K7" s="1">
-        <v>50070.33</v>
+        <v>50070.1894</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5226</v>
+        <v>12.5478</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10070.33</v>
+        <v>-10070.1894</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0399</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.9657</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E8" s="1">
-        <v>4748.0077</v>
+        <v>4738.4877</v>
       </c>
       <c r="F8" s="1">
-        <v>776.6900000000001</v>
+        <v>775.1248000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61561.243</v>
+        <v>61315.0829</v>
       </c>
       <c r="I8" s="1">
-        <v>421.9798</v>
+        <v>421.1366</v>
       </c>
       <c r="J8" s="1">
-        <v>61983.2228</v>
+        <v>61736.2195</v>
       </c>
       <c r="K8" s="1">
-        <v>60140.6599</v>
+        <v>60140.3789</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6665</v>
+        <v>12.6919</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1079.563</v>
+        <v>1077.3999</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8990.767</v>
+        <v>-8992.7896</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0346</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.3568</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E9" s="1">
-        <v>5524.6977</v>
+        <v>5513.6125</v>
       </c>
       <c r="F9" s="1">
-        <v>770.1128</v>
+        <v>768.5279</v>
       </c>
       <c r="H9" s="1">
-        <v>73792.2822</v>
+        <v>73497.00629999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1431.2128</v>
+        <v>1428.347</v>
       </c>
       <c r="J9" s="1">
-        <v>75223.495</v>
+        <v>74925.3533</v>
       </c>
       <c r="K9" s="1">
-        <v>70210.9899</v>
+        <v>70210.5683</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7086</v>
+        <v>12.734</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10286.2426</v>
+        <v>-10285.6694</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.045</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.2487</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E10" s="1">
-        <v>6294.8105</v>
+        <v>6282.1404</v>
       </c>
       <c r="F10" s="1">
-        <v>776.3964</v>
+        <v>774.8033</v>
       </c>
       <c r="H10" s="1">
-        <v>83398.0558</v>
+        <v>83063.71649999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1144.9702</v>
+        <v>1142.6776</v>
       </c>
       <c r="J10" s="1">
-        <v>84543.026</v>
+        <v>84206.3941</v>
       </c>
       <c r="K10" s="1">
-        <v>80497.2325</v>
+        <v>80496.2377</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7879</v>
+        <v>12.8135</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10286.2426</v>
+        <v>-10285.6694</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.3991</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E11" s="1">
-        <v>7071.2069</v>
+        <v>7056.9437</v>
       </c>
       <c r="F11" s="1">
-        <v>767.6816</v>
+        <v>766.1065</v>
       </c>
       <c r="H11" s="1">
-        <v>94747.8079</v>
+        <v>94367.5686</v>
       </c>
       <c r="I11" s="1">
-        <v>858.7277</v>
+        <v>857.0082</v>
       </c>
       <c r="J11" s="1">
-        <v>95606.5355</v>
+        <v>95224.5768</v>
       </c>
       <c r="K11" s="1">
-        <v>90783.47500000001</v>
+        <v>90781.9071</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8385</v>
+        <v>12.8642</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2266.1318</v>
+        <v>2261.5705</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8020.1108</v>
+        <v>-8024.0989</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.5985</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E12" s="1">
-        <v>7838.8885</v>
+        <v>7823.0502</v>
       </c>
       <c r="F12" s="1">
-        <v>839.7477</v>
+        <v>837.8619</v>
       </c>
       <c r="H12" s="1">
-        <v>106597.1248</v>
+        <v>106168.9617</v>
       </c>
       <c r="I12" s="1">
-        <v>2838.6169</v>
+        <v>2832.9093</v>
       </c>
       <c r="J12" s="1">
-        <v>109435.7417</v>
+        <v>109001.871</v>
       </c>
       <c r="K12" s="1">
-        <v>101069.7176</v>
+        <v>101067.5765</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8934</v>
+        <v>12.9192</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11419.3084</v>
+        <v>-11416.4547</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0363</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.6955</v>
       </c>
       <c r="C13" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D13" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E13" s="1">
-        <v>8678.6361</v>
+        <v>8660.9121</v>
       </c>
       <c r="F13" s="1">
-        <v>833.8</v>
+        <v>831.9272999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>118858.2609</v>
+        <v>118378.213</v>
       </c>
       <c r="I13" s="1">
-        <v>1419.3084</v>
+        <v>1416.4547</v>
       </c>
       <c r="J13" s="1">
-        <v>120277.5694</v>
+        <v>119794.6677</v>
       </c>
       <c r="K13" s="1">
-        <v>112489.026</v>
+        <v>112484.0312</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9616</v>
+        <v>12.9876</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11419.3084</v>
+        <v>-11416.4547</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.3398</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E14" s="1">
-        <v>9512.4362</v>
+        <v>9492.839400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9512.4362</v>
+        <v>-9492.839400000001</v>
       </c>
       <c r="H14" s="1">
-        <v>126893.9958</v>
+        <v>126379.1201</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126893.9958</v>
+        <v>126379.1201</v>
       </c>
       <c r="K14" s="1">
-        <v>123908.3345</v>
+        <v>123900.4859</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0259</v>
+        <v>13.052</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2343.2318</v>
+        <v>2338.4463</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129237.2276</v>
+        <v>128717.5663</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.026</v>
+        <v>-0.0263</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1384,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>13.2404</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.382</v>
       </c>
       <c r="C3" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="F3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0648</v>
+        <v>-0.06859999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.9583</v>
       </c>
       <c r="C4" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D4" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E4" s="1">
-        <v>1562.8882</v>
+        <v>1559.7652</v>
       </c>
       <c r="F4" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.7968</v>
+        <v>12.8224</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.2036</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E5" s="1">
-        <v>2399.1274</v>
+        <v>2394.3295</v>
       </c>
       <c r="F5" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5045</v>
+        <v>12.5296</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.3603</v>
+        <v>-9438.4845</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0205</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E6" s="1">
-        <v>3218.5578</v>
+        <v>3212.118</v>
       </c>
       <c r="F6" s="1">
-        <v>653.3292</v>
+        <v>667.5201</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41563.1675</v>
+        <v>41397.135</v>
       </c>
       <c r="I6" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="J6" s="1">
-        <v>42125.8072</v>
+        <v>41958.6504</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4279</v>
+        <v>12.4528</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8436.8325</v>
+        <v>-8637.3758</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0725</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.4338</v>
       </c>
       <c r="C7" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D7" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E7" s="1">
-        <v>3871.887</v>
+        <v>3879.6381</v>
       </c>
       <c r="F7" s="1">
-        <v>594.4591</v>
+        <v>595.6694</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52014.1556</v>
+        <v>52013.9201</v>
       </c>
       <c r="I7" s="1">
-        <v>2125.8072</v>
+        <v>1924.1396</v>
       </c>
       <c r="J7" s="1">
-        <v>54139.9628</v>
+        <v>53938.0598</v>
       </c>
       <c r="K7" s="1">
-        <v>48436.8325</v>
+        <v>48637.3758</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5099</v>
+        <v>12.5366</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7985.8444</v>
+        <v>-8018.1269</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0386</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.9657</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E8" s="1">
-        <v>4466.3461</v>
+        <v>4475.3075</v>
       </c>
       <c r="F8" s="1">
-        <v>932.514</v>
+        <v>934.3588</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57909.3034</v>
+        <v>57909.5839</v>
       </c>
       <c r="I8" s="1">
-        <v>4139.9628</v>
+        <v>3906.0128</v>
       </c>
       <c r="J8" s="1">
-        <v>62049.2662</v>
+        <v>61815.5966</v>
       </c>
       <c r="K8" s="1">
-        <v>56422.6769</v>
+        <v>56655.5027</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6328</v>
+        <v>12.6596</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1045.4095</v>
+        <v>1047.5023</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11045.2871</v>
+        <v>-11091.4071</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0326</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.3568</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E9" s="1">
-        <v>5398.8601</v>
+        <v>5409.6663</v>
       </c>
       <c r="F9" s="1">
-        <v>590.5984999999999</v>
+        <v>591.7891</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72111.4942</v>
+        <v>72111.3928</v>
       </c>
       <c r="I9" s="1">
-        <v>3094.6757</v>
+        <v>2814.6057</v>
       </c>
       <c r="J9" s="1">
-        <v>75206.16989999999</v>
+        <v>74925.9985</v>
       </c>
       <c r="K9" s="1">
-        <v>68513.3735</v>
+        <v>68794.412</v>
       </c>
       <c r="L9" s="1">
-        <v>12.6903</v>
+        <v>12.7169</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7888.5058</v>
+        <v>-7920.268</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0438</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.2487</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E10" s="1">
-        <v>5989.4586</v>
+        <v>6001.4554</v>
       </c>
       <c r="F10" s="1">
-        <v>803.6608</v>
+        <v>805.2788</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79352.5395</v>
+        <v>79352.443</v>
       </c>
       <c r="I10" s="1">
-        <v>5206.1699</v>
+        <v>4894.3378</v>
       </c>
       <c r="J10" s="1">
-        <v>84558.70940000001</v>
+        <v>84246.7807</v>
       </c>
       <c r="K10" s="1">
-        <v>76401.8793</v>
+        <v>76714.67999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7561</v>
+        <v>12.7827</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10647.4605</v>
+        <v>-10690.2368</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.3991</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E11" s="1">
-        <v>6793.1193</v>
+        <v>6806.7341</v>
       </c>
       <c r="F11" s="1">
-        <v>670.0685</v>
+        <v>671.4109999999999</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91021.6851</v>
+        <v>91021.6908</v>
       </c>
       <c r="I11" s="1">
-        <v>4558.7094</v>
+        <v>4204.1009</v>
       </c>
       <c r="J11" s="1">
-        <v>95580.3946</v>
+        <v>95225.7917</v>
       </c>
       <c r="K11" s="1">
-        <v>87049.3398</v>
+        <v>87404.91680000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8143</v>
+        <v>12.8409</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2156.2051</v>
+        <v>2160.5239</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6822.1098</v>
+        <v>-6853.7729</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0108</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.5985</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E12" s="1">
-        <v>7463.1878</v>
+        <v>7478.1451</v>
       </c>
       <c r="F12" s="1">
-        <v>625.9397</v>
+        <v>627.1948</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101488.1597</v>
+        <v>101488.1509</v>
       </c>
       <c r="I12" s="1">
-        <v>7736.5996</v>
+        <v>7350.328</v>
       </c>
       <c r="J12" s="1">
-        <v>109224.7593</v>
+        <v>108838.4789</v>
       </c>
       <c r="K12" s="1">
-        <v>96027.6547</v>
+        <v>96419.2136</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8668</v>
+        <v>12.8935</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8511.8403</v>
+        <v>-8545.968500000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0345</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.6955</v>
       </c>
       <c r="C13" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D13" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E13" s="1">
-        <v>8089.1275</v>
+        <v>8105.3399</v>
       </c>
       <c r="F13" s="1">
-        <v>672.8746</v>
+        <v>674.2271</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110784.6454</v>
+        <v>110784.5969</v>
       </c>
       <c r="I13" s="1">
-        <v>9224.7593</v>
+        <v>8804.3595</v>
       </c>
       <c r="J13" s="1">
-        <v>120009.4047</v>
+        <v>119588.9564</v>
       </c>
       <c r="K13" s="1">
-        <v>104539.495</v>
+        <v>104965.1822</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9235</v>
+        <v>12.9501</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9215.354600000001</v>
+        <v>-9252.350700000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0066</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.3398</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E14" s="1">
-        <v>8762.0021</v>
+        <v>8779.566999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8762.0021</v>
+        <v>-8779.566999999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116883.3558</v>
+        <v>116883.2537</v>
       </c>
       <c r="I14" s="1">
-        <v>10009.4047</v>
+        <v>9552.0088</v>
       </c>
       <c r="J14" s="1">
-        <v>126892.7605</v>
+        <v>126435.2625</v>
       </c>
       <c r="K14" s="1">
-        <v>113754.8496</v>
+        <v>114217.5329</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9827</v>
+        <v>13.0095</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2184.0644</v>
+        <v>2188.4418</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119067.4203</v>
+        <v>119071.6955</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.024</v>
+        <v>-0.0243</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.2404</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.382</v>
       </c>
       <c r="C3" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="F3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0648</v>
+        <v>-0.06859999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.9583</v>
       </c>
       <c r="C4" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D4" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E4" s="1">
-        <v>1562.8882</v>
+        <v>1559.7652</v>
       </c>
       <c r="F4" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.7968</v>
+        <v>12.8224</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.2036</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E5" s="1">
-        <v>2399.1274</v>
+        <v>2394.3295</v>
       </c>
       <c r="F5" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5045</v>
+        <v>12.5296</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.3603</v>
+        <v>-9438.4845</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0205</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E6" s="1">
-        <v>3218.5578</v>
+        <v>3212.118</v>
       </c>
       <c r="F6" s="1">
-        <v>692.2422</v>
+        <v>706.5109</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41563.1675</v>
+        <v>41397.135</v>
       </c>
       <c r="I6" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="J6" s="1">
-        <v>42125.8072</v>
+        <v>41958.6504</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4279</v>
+        <v>12.4528</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8939.3388</v>
+        <v>-9141.8979</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0725</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.4338</v>
       </c>
       <c r="C7" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D7" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E7" s="1">
-        <v>3910.8</v>
+        <v>3918.629</v>
       </c>
       <c r="F7" s="1">
-        <v>611.7491</v>
+        <v>612.9942</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52536.9044</v>
+        <v>52536.6665</v>
       </c>
       <c r="I7" s="1">
-        <v>1623.301</v>
+        <v>1419.6176</v>
       </c>
       <c r="J7" s="1">
-        <v>54160.2053</v>
+        <v>53956.2841</v>
       </c>
       <c r="K7" s="1">
-        <v>48939.3388</v>
+        <v>49141.8979</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5139</v>
+        <v>12.5406</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8218.1144</v>
+        <v>-8251.3313</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.039</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.9657</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E8" s="1">
-        <v>4522.549</v>
+        <v>4531.6232</v>
       </c>
       <c r="F8" s="1">
-        <v>957.9722</v>
+        <v>959.8677</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58638.0136</v>
+        <v>58638.2976</v>
       </c>
       <c r="I8" s="1">
-        <v>3405.1866</v>
+        <v>3168.2862</v>
       </c>
       <c r="J8" s="1">
-        <v>62043.2002</v>
+        <v>61806.5838</v>
       </c>
       <c r="K8" s="1">
-        <v>57157.4532</v>
+        <v>57393.2292</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6383</v>
+        <v>12.665</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1055.916</v>
+        <v>1058.0298</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11364.8643</v>
+        <v>-11412.2836</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.033</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.3568</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E9" s="1">
-        <v>5480.5212</v>
+        <v>5491.4909</v>
       </c>
       <c r="F9" s="1">
-        <v>614.8076</v>
+        <v>616.0468</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73202.2257</v>
+        <v>73202.1228</v>
       </c>
       <c r="I9" s="1">
-        <v>2040.3223</v>
+        <v>1756.0026</v>
       </c>
       <c r="J9" s="1">
-        <v>75242.548</v>
+        <v>74958.1254</v>
       </c>
       <c r="K9" s="1">
-        <v>69578.2335</v>
+        <v>69863.54270000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.6956</v>
+        <v>12.7221</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8211.8621</v>
+        <v>-8244.9236</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0444</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.2487</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E10" s="1">
-        <v>6095.3288</v>
+        <v>6107.5377</v>
       </c>
       <c r="F10" s="1">
-        <v>835.2499</v>
+        <v>836.9314000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80755.1828</v>
+        <v>80755.0845</v>
       </c>
       <c r="I10" s="1">
-        <v>3828.4601</v>
+        <v>3511.0791</v>
       </c>
       <c r="J10" s="1">
-        <v>84583.64290000001</v>
+        <v>84266.1636</v>
       </c>
       <c r="K10" s="1">
-        <v>77790.0956</v>
+        <v>78108.4662</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7622</v>
+        <v>12.7889</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11065.9755</v>
+        <v>-11110.4311</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0077</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.3991</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E11" s="1">
-        <v>6930.5787</v>
+        <v>6944.469</v>
       </c>
       <c r="F11" s="1">
-        <v>702.7895</v>
+        <v>704.1976</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92863.51730000001</v>
+        <v>92863.52310000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2762.4847</v>
+        <v>2400.6479</v>
       </c>
       <c r="J11" s="1">
-        <v>95626.00199999999</v>
+        <v>95264.171</v>
       </c>
       <c r="K11" s="1">
-        <v>88856.0711</v>
+        <v>89218.8973</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8209</v>
+        <v>12.8475</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2194.3184</v>
+        <v>2198.7136</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7222.4284</v>
+        <v>-7255.7724</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.5985</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E12" s="1">
-        <v>7633.3682</v>
+        <v>7648.6666</v>
       </c>
       <c r="F12" s="1">
-        <v>661.0513999999999</v>
+        <v>662.377</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103802.3577</v>
+        <v>103802.3487</v>
       </c>
       <c r="I12" s="1">
-        <v>5540.0563</v>
+        <v>5144.8755</v>
       </c>
       <c r="J12" s="1">
-        <v>109342.414</v>
+        <v>108947.2243</v>
       </c>
       <c r="K12" s="1">
-        <v>98272.8178</v>
+        <v>98673.3833</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8741</v>
+        <v>12.9007</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8989.307699999999</v>
+        <v>-9025.35</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0352</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.6955</v>
       </c>
       <c r="C13" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D13" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E13" s="1">
-        <v>8294.419599999999</v>
+        <v>8311.043600000001</v>
       </c>
       <c r="F13" s="1">
-        <v>712.599</v>
+        <v>714.0312</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113596.2241</v>
+        <v>113596.1744</v>
       </c>
       <c r="I13" s="1">
-        <v>6550.7486</v>
+        <v>6119.5255</v>
       </c>
       <c r="J13" s="1">
-        <v>120146.9727</v>
+        <v>119715.7</v>
       </c>
       <c r="K13" s="1">
-        <v>107262.1255</v>
+        <v>107698.7333</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9318</v>
+        <v>12.9585</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9759.399600000001</v>
+        <v>-9798.5782</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0067</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.3398</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E14" s="1">
-        <v>9007.018599999999</v>
+        <v>9025.074699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9007.018599999999</v>
+        <v>-9025.074699999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120151.8272</v>
+        <v>120151.7222</v>
       </c>
       <c r="I14" s="1">
-        <v>6791.349</v>
+        <v>6320.9473</v>
       </c>
       <c r="J14" s="1">
-        <v>126943.1762</v>
+        <v>126472.6695</v>
       </c>
       <c r="K14" s="1">
-        <v>117021.5251</v>
+        <v>117497.3115</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9923</v>
+        <v>13.019</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2239.4933</v>
+        <v>2243.9818</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122391.3205</v>
+        <v>122395.704</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0246</v>
+        <v>-0.025</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.2404</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.382</v>
       </c>
       <c r="C3" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="F3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0648</v>
+        <v>-0.06859999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.9583</v>
       </c>
       <c r="C4" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D4" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E4" s="1">
-        <v>1562.8882</v>
+        <v>1559.7652</v>
       </c>
       <c r="F4" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.7968</v>
+        <v>12.8224</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.2036</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E5" s="1">
-        <v>2399.1274</v>
+        <v>2394.3295</v>
       </c>
       <c r="F5" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5045</v>
+        <v>12.5296</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.3603</v>
+        <v>-9438.4845</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0205</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E6" s="1">
-        <v>3218.5578</v>
+        <v>3212.118</v>
       </c>
       <c r="F6" s="1">
-        <v>731.5452</v>
+        <v>745.8926</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41563.1675</v>
+        <v>41397.135</v>
       </c>
       <c r="I6" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="J6" s="1">
-        <v>42125.8072</v>
+        <v>41958.6504</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4279</v>
+        <v>12.4528</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9446.882600000001</v>
+        <v>-9651.477800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0725</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.4338</v>
       </c>
       <c r="C7" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D7" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E7" s="1">
-        <v>3950.103</v>
+        <v>3958.0107</v>
       </c>
       <c r="F7" s="1">
-        <v>629.4017</v>
+        <v>630.6825</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53064.8937</v>
+        <v>53064.6534</v>
       </c>
       <c r="I7" s="1">
-        <v>1115.7571</v>
+        <v>910.0377</v>
       </c>
       <c r="J7" s="1">
-        <v>54180.6508</v>
+        <v>53974.6911</v>
       </c>
       <c r="K7" s="1">
-        <v>49446.8826</v>
+        <v>49651.4778</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5179</v>
+        <v>12.5446</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8455.2569</v>
+        <v>-8489.427900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0394</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.9657</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E8" s="1">
-        <v>4579.5047</v>
+        <v>4588.6932</v>
       </c>
       <c r="F8" s="1">
-        <v>976.461</v>
+        <v>956.0419000000001</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59376.4844</v>
+        <v>59376.772</v>
       </c>
       <c r="I8" s="1">
-        <v>2660.5002</v>
+        <v>2420.6098</v>
       </c>
       <c r="J8" s="1">
-        <v>62036.9846</v>
+        <v>61797.3818</v>
       </c>
       <c r="K8" s="1">
-        <v>57902.1396</v>
+        <v>58140.9057</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6438</v>
+        <v>12.6705</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1066.5278</v>
+        <v>1068.6629</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11593.9724</v>
+        <v>-11351.9469</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0334</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.3568</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E9" s="1">
-        <v>5555.9657</v>
+        <v>5544.7351</v>
       </c>
       <c r="F9" s="1">
-        <v>647.3693</v>
+        <v>671.0251</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74209.9228</v>
+        <v>73911.8734</v>
       </c>
       <c r="I9" s="1">
-        <v>1066.5278</v>
+        <v>1068.6629</v>
       </c>
       <c r="J9" s="1">
-        <v>75276.4506</v>
+        <v>74980.5362</v>
       </c>
       <c r="K9" s="1">
-        <v>70562.6397</v>
+        <v>70561.51549999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7003</v>
+        <v>12.7259</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8646.782800000001</v>
+        <v>-8980.732099999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.045</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.2487</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.3351</v>
+        <v>6215.7602</v>
       </c>
       <c r="F10" s="1">
-        <v>867.9453999999999</v>
+        <v>869.6925</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82186.1251</v>
+        <v>82186.0251</v>
       </c>
       <c r="I10" s="1">
-        <v>2419.745</v>
+        <v>2087.9308</v>
       </c>
       <c r="J10" s="1">
-        <v>84605.8701</v>
+        <v>84273.9559</v>
       </c>
       <c r="K10" s="1">
-        <v>79209.42260000001</v>
+        <v>79542.2476</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7688</v>
+        <v>12.7969</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11499.1476</v>
+        <v>-11545.3413</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.3991</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E11" s="1">
-        <v>7071.2804</v>
+        <v>7085.4527</v>
       </c>
       <c r="F11" s="1">
-        <v>736.8653</v>
+        <v>738.3416999999999</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94748.7933</v>
+        <v>94748.7991</v>
       </c>
       <c r="I11" s="1">
-        <v>920.5974</v>
+        <v>542.5895</v>
       </c>
       <c r="J11" s="1">
-        <v>95669.3907</v>
+        <v>95291.38860000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90708.5701</v>
+        <v>91087.5889</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8277</v>
+        <v>12.8556</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2233.2006</v>
+        <v>2237.6737</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7640.1315</v>
+        <v>-7675.2277</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.5985</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E12" s="1">
-        <v>7808.1457</v>
+        <v>7823.7944</v>
       </c>
       <c r="F12" s="1">
-        <v>697.8179</v>
+        <v>699.2172</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106179.0697</v>
+        <v>106179.0605</v>
       </c>
       <c r="I12" s="1">
-        <v>3280.4659</v>
+        <v>2867.3618</v>
       </c>
       <c r="J12" s="1">
-        <v>109459.5356</v>
+        <v>109046.4223</v>
       </c>
       <c r="K12" s="1">
-        <v>100581.9023</v>
+        <v>101000.4903</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8817</v>
+        <v>12.9094</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9489.277</v>
+        <v>-9527.3236</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0359</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.6955</v>
       </c>
       <c r="C13" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D13" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E13" s="1">
-        <v>8505.963599999999</v>
+        <v>8523.0116</v>
       </c>
       <c r="F13" s="1">
-        <v>754.3795</v>
+        <v>755.8955</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116493.4251</v>
+        <v>116493.3742</v>
       </c>
       <c r="I13" s="1">
-        <v>3791.1889</v>
+        <v>3340.0382</v>
       </c>
       <c r="J13" s="1">
-        <v>120284.614</v>
+        <v>119833.4124</v>
       </c>
       <c r="K13" s="1">
-        <v>110071.1793</v>
+        <v>110527.8138</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9405</v>
+        <v>12.9682</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10331.605</v>
+        <v>-10373.079</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.3398</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E14" s="1">
-        <v>9260.343199999999</v>
+        <v>9278.9071</v>
       </c>
       <c r="F14" s="1">
-        <v>-9260.343199999999</v>
+        <v>-9278.9071</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123531.1261</v>
+        <v>123531.0181</v>
       </c>
       <c r="I14" s="1">
-        <v>3459.5839</v>
+        <v>2966.9592</v>
       </c>
       <c r="J14" s="1">
-        <v>126990.71</v>
+        <v>126497.9773</v>
       </c>
       <c r="K14" s="1">
-        <v>120402.7843</v>
+        <v>120900.8929</v>
       </c>
       <c r="L14" s="1">
-        <v>13.002</v>
+        <v>13.0296</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2296.6102</v>
+        <v>2301.2131</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125827.7362</v>
+        <v>125832.2312</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0253</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.2404</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.382</v>
       </c>
       <c r="C3" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E3" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="F3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9351.681200000001</v>
+        <v>9314.308499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0648</v>
+        <v>-0.06859999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.9583</v>
       </c>
       <c r="C4" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D4" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E4" s="1">
-        <v>1562.8882</v>
+        <v>1559.7652</v>
       </c>
       <c r="F4" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18689.4855</v>
+        <v>18614.8617</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.7968</v>
+        <v>12.8224</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.2036</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E5" s="1">
-        <v>2399.1274</v>
+        <v>2394.3295</v>
       </c>
       <c r="F5" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29277.9915</v>
+        <v>29161.018</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5045</v>
+        <v>12.5296</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9437.3603</v>
+        <v>-9438.4845</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0205</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.9136</v>
       </c>
       <c r="C6" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D6" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E6" s="1">
-        <v>3218.5578</v>
+        <v>3212.118</v>
       </c>
       <c r="F6" s="1">
-        <v>771.2413</v>
+        <v>785.6682</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41563.1675</v>
+        <v>41397.135</v>
       </c>
       <c r="I6" s="1">
-        <v>562.6396999999999</v>
+        <v>561.5155</v>
       </c>
       <c r="J6" s="1">
-        <v>42125.8072</v>
+        <v>41958.6504</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4279</v>
+        <v>12.4528</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9959.5018</v>
+        <v>-10166.1533</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0725</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.4338</v>
       </c>
       <c r="C7" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D7" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E7" s="1">
-        <v>3989.7991</v>
+        <v>3997.7862</v>
       </c>
       <c r="F7" s="1">
-        <v>647.4227</v>
+        <v>648.7397999999999</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53598.1627</v>
+        <v>53597.9201</v>
       </c>
       <c r="I7" s="1">
-        <v>603.138</v>
+        <v>395.3621</v>
       </c>
       <c r="J7" s="1">
-        <v>54201.3007</v>
+        <v>53993.2822</v>
       </c>
       <c r="K7" s="1">
-        <v>49959.5018</v>
+        <v>50166.1533</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5218</v>
+        <v>12.5485</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8697.346600000001</v>
+        <v>-8732.491400000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0398</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.9657</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E8" s="1">
-        <v>4637.2217</v>
+        <v>4646.526</v>
       </c>
       <c r="F8" s="1">
-        <v>918.2529</v>
+        <v>897.7171</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60124.8258</v>
+        <v>60125.117</v>
       </c>
       <c r="I8" s="1">
-        <v>1905.7914</v>
+        <v>1662.8707</v>
       </c>
       <c r="J8" s="1">
-        <v>62030.6172</v>
+        <v>61787.9877</v>
       </c>
       <c r="K8" s="1">
-        <v>58656.8483</v>
+        <v>58898.6447</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6491</v>
+        <v>12.6758</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1077.2457</v>
+        <v>1079.4023</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10828.5456</v>
+        <v>-10583.4684</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0338</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.3568</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E9" s="1">
-        <v>5555.4746</v>
+        <v>5544.243</v>
       </c>
       <c r="F9" s="1">
-        <v>758.0429</v>
+        <v>781.9204</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74203.3633</v>
+        <v>73905.3143</v>
       </c>
       <c r="I9" s="1">
-        <v>1077.2457</v>
+        <v>1079.4023</v>
       </c>
       <c r="J9" s="1">
-        <v>75280.6091</v>
+        <v>74984.7166</v>
       </c>
       <c r="K9" s="1">
-        <v>70562.6397</v>
+        <v>70561.51549999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7015</v>
+        <v>12.727</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10125.0278</v>
+        <v>-10464.9095</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0451</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.2487</v>
       </c>
       <c r="C10" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D10" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E10" s="1">
-        <v>6313.5175</v>
+        <v>6326.1634</v>
       </c>
       <c r="F10" s="1">
-        <v>826.6636</v>
+        <v>799.5731</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83645.8998</v>
+        <v>83645.798</v>
       </c>
       <c r="I10" s="1">
-        <v>952.218</v>
+        <v>614.4927</v>
       </c>
       <c r="J10" s="1">
-        <v>84598.11780000001</v>
+        <v>84260.2908</v>
       </c>
       <c r="K10" s="1">
-        <v>80687.6675</v>
+        <v>81026.425</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7801</v>
+        <v>12.8081</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10952.218</v>
+        <v>-10614.4927</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.3991</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E11" s="1">
-        <v>7140.1811</v>
+        <v>7125.7365</v>
       </c>
       <c r="F11" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95672.00109999999</v>
+        <v>95287.4865</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>95672.00109999999</v>
+        <v>95287.4865</v>
       </c>
       <c r="K11" s="1">
-        <v>91639.8855</v>
+        <v>91640.91770000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8344</v>
+        <v>12.8606</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2272.8663</v>
+        <v>2277.4188</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7727.1337</v>
+        <v>-7722.5812</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0114</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.5985</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E12" s="1">
-        <v>7886.4999</v>
+        <v>7870.5655</v>
       </c>
       <c r="F12" s="1">
-        <v>837.4494</v>
+        <v>870.8686</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107244.5691</v>
+        <v>106813.8062</v>
       </c>
       <c r="I12" s="1">
-        <v>2272.8663</v>
+        <v>2277.4188</v>
       </c>
       <c r="J12" s="1">
-        <v>109517.4355</v>
+        <v>109091.225</v>
       </c>
       <c r="K12" s="1">
-        <v>101639.8855</v>
+        <v>101640.9177</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8878</v>
+        <v>12.9141</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11388.0558</v>
+        <v>-11866.194</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0364</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.6955</v>
       </c>
       <c r="C13" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D13" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E13" s="1">
-        <v>8723.9493</v>
+        <v>8741.4341</v>
       </c>
       <c r="F13" s="1">
-        <v>794.7728</v>
+        <v>758.6753</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119478.848</v>
+        <v>119478.7958</v>
       </c>
       <c r="I13" s="1">
-        <v>884.8105</v>
+        <v>411.2248</v>
       </c>
       <c r="J13" s="1">
-        <v>120363.6585</v>
+        <v>119890.0206</v>
       </c>
       <c r="K13" s="1">
-        <v>113027.9413</v>
+        <v>113507.1118</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9561</v>
+        <v>12.985</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10884.8105</v>
+        <v>-10411.2248</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0071</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.3398</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E14" s="1">
-        <v>9518.722100000001</v>
+        <v>9500.109399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9518.722100000001</v>
+        <v>-9500.109399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126977.8491</v>
+        <v>126475.9063</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126977.8491</v>
+        <v>126475.9063</v>
       </c>
       <c r="K14" s="1">
-        <v>123912.7518</v>
+        <v>123918.3366</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0178</v>
+        <v>13.0439</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2355.4663</v>
+        <v>2360.1872</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129333.3154</v>
+        <v>128836.0935</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.026</v>
+        <v>-0.0263</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0259</v>
+        <v>13.052</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9827</v>
+        <v>13.0095</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9923</v>
+        <v>13.019</v>
       </c>
       <c r="F3" s="1">
-        <v>13.002</v>
+        <v>13.0296</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0178</v>
+        <v>13.0439</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0145</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0649</v>
+        <v>0.0527</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06419999999999999</v>
+        <v>0.0527</v>
       </c>
       <c r="E4" s="3">
-        <v>0.065</v>
+        <v>0.0534</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0658</v>
+        <v>0.0539</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0659</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1185</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1332</v>
+        <v>0.1349</v>
       </c>
       <c r="D5" s="3">
-        <v>0.131</v>
+        <v>0.1329</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1317</v>
+        <v>0.1336</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1325</v>
+        <v>0.1343</v>
       </c>
       <c r="G5" s="3">
-        <v>0.133</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.0488</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3344</v>
+        <v>0.2396</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3345</v>
+        <v>0.2433</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3392</v>
+        <v>0.2473</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3435</v>
+        <v>0.2501</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3429</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1469</v>
+        <v>0.1384</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1517</v>
+        <v>0.1434</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1507</v>
+        <v>0.1424</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1497</v>
+        <v>0.1412</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1483</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6251.5662</v>
+        <v>6238.9321</v>
       </c>
       <c r="D8" s="1">
-        <v>5948.3187</v>
+        <v>5957.9835</v>
       </c>
       <c r="E8" s="1">
-        <v>6052.3674</v>
+        <v>6062.2406</v>
       </c>
       <c r="F8" s="1">
-        <v>6158.9784</v>
+        <v>6169.0652</v>
       </c>
       <c r="G8" s="1">
-        <v>6268.2181</v>
+        <v>6278.5238</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P57_KFSDIV.xlsx
+++ b/output/1Y_P57_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2404</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.382</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.9583</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2036</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9136</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.4338</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9657</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3568</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2487</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3991</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5985</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.6955</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3398</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2404</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.382</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.9583</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2036</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9136</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.4338</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9657</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3568</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2487</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3991</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5985</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.6955</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3398</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2404</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.382</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.9583</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2036</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9136</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.4338</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9657</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3568</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2487</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3991</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5985</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.6955</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3398</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2404</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.382</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.9583</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2036</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9136</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.4338</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9657</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3568</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2487</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3991</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5985</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.6955</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3398</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2404</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.382</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.9583</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2036</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9136</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.4338</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9657</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3568</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.2487</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3991</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5985</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.6955</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3398</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7271.0933</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0198</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1135</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0829</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0529</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
